--- a/SchedulingData/static6/pso/scheduling1_8.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,306 +462,306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.7</v>
+        <v>26.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.3</v>
+        <v>59.9</v>
       </c>
       <c r="E3" t="n">
-        <v>22.9</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>72.09999999999999</v>
+        <v>72.34</v>
       </c>
       <c r="E4" t="n">
-        <v>24.96</v>
+        <v>26.416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>42.4</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>26.46</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>72.59999999999999</v>
+        <v>58.94</v>
       </c>
       <c r="E6" t="n">
-        <v>25.44</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72.09999999999999</v>
+        <v>72.34</v>
       </c>
       <c r="D7" t="n">
-        <v>109.74</v>
+        <v>150.68</v>
       </c>
       <c r="E7" t="n">
-        <v>21.836</v>
+        <v>22.192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>109.74</v>
+        <v>150.68</v>
       </c>
       <c r="D8" t="n">
-        <v>173.84</v>
+        <v>207.28</v>
       </c>
       <c r="E8" t="n">
-        <v>16.556</v>
+        <v>18.652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>207.28</v>
       </c>
       <c r="D9" t="n">
-        <v>91.40000000000001</v>
+        <v>284.52</v>
       </c>
       <c r="E9" t="n">
-        <v>24.54</v>
+        <v>14.508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>91.40000000000001</v>
+        <v>284.52</v>
       </c>
       <c r="D10" t="n">
-        <v>145.42</v>
+        <v>327.74</v>
       </c>
       <c r="E10" t="n">
-        <v>21.768</v>
+        <v>11.316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>94.3</v>
+        <v>58.94</v>
       </c>
       <c r="D11" t="n">
-        <v>149.34</v>
+        <v>151.74</v>
       </c>
       <c r="E11" t="n">
-        <v>19.996</v>
+        <v>23.096</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>149.34</v>
+        <v>151.74</v>
       </c>
       <c r="D12" t="n">
-        <v>224</v>
+        <v>248.14</v>
       </c>
       <c r="E12" t="n">
-        <v>15.16</v>
+        <v>18.056</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>42.4</v>
+        <v>327.74</v>
       </c>
       <c r="D13" t="n">
-        <v>119</v>
+        <v>390.44</v>
       </c>
       <c r="E13" t="n">
-        <v>22.38</v>
+        <v>7.676</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>119</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>182.74</v>
+        <v>119.54</v>
       </c>
       <c r="E14" t="n">
-        <v>18.116</v>
+        <v>23.316</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>145.42</v>
+        <v>248.14</v>
       </c>
       <c r="D15" t="n">
-        <v>212.02</v>
+        <v>302.34</v>
       </c>
       <c r="E15" t="n">
-        <v>18.208</v>
+        <v>15.736</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>64.04000000000001</v>
+        <v>159.16</v>
       </c>
       <c r="E16" t="n">
-        <v>25.776</v>
+        <v>20.844</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>72.59999999999999</v>
+        <v>119.54</v>
       </c>
       <c r="D17" t="n">
-        <v>136.5</v>
+        <v>182.36</v>
       </c>
       <c r="E17" t="n">
-        <v>23.12</v>
+        <v>18.164</v>
       </c>
     </row>
     <row r="18">
@@ -770,245 +770,245 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>212.02</v>
+        <v>159.16</v>
       </c>
       <c r="D18" t="n">
-        <v>269.76</v>
+        <v>213.36</v>
       </c>
       <c r="E18" t="n">
-        <v>14.064</v>
+        <v>17.544</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>182.74</v>
+        <v>302.34</v>
       </c>
       <c r="D19" t="n">
-        <v>243.68</v>
+        <v>365.86</v>
       </c>
       <c r="E19" t="n">
-        <v>14.632</v>
+        <v>12.964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>64.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>131.3</v>
+        <v>54.5</v>
       </c>
       <c r="E20" t="n">
-        <v>20.68</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>243.68</v>
+        <v>182.36</v>
       </c>
       <c r="D21" t="n">
-        <v>283.16</v>
+        <v>243.5</v>
       </c>
       <c r="E21" t="n">
-        <v>11.824</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>283.16</v>
+        <v>243.5</v>
       </c>
       <c r="D22" t="n">
-        <v>332.06</v>
+        <v>323.04</v>
       </c>
       <c r="E22" t="n">
-        <v>9.064</v>
+        <v>10.296</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>269.76</v>
+        <v>365.86</v>
       </c>
       <c r="D23" t="n">
-        <v>312.98</v>
+        <v>427.74</v>
       </c>
       <c r="E23" t="n">
-        <v>10.872</v>
+        <v>9.375999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>136.5</v>
+        <v>323.04</v>
       </c>
       <c r="D24" t="n">
-        <v>189.66</v>
+        <v>402.04</v>
       </c>
       <c r="E24" t="n">
-        <v>19.424</v>
+        <v>5.016</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>312.98</v>
+        <v>427.74</v>
       </c>
       <c r="D25" t="n">
-        <v>375.68</v>
+        <v>483.72</v>
       </c>
       <c r="E25" t="n">
-        <v>7.232</v>
+        <v>6.868</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>332.06</v>
+        <v>54.5</v>
       </c>
       <c r="D26" t="n">
-        <v>391.32</v>
+        <v>126.66</v>
       </c>
       <c r="E26" t="n">
-        <v>5.268</v>
+        <v>22.144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>189.66</v>
+        <v>213.36</v>
       </c>
       <c r="D27" t="n">
-        <v>231.94</v>
+        <v>289.96</v>
       </c>
       <c r="E27" t="n">
-        <v>15.836</v>
+        <v>13.464</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>173.84</v>
+        <v>59.9</v>
       </c>
       <c r="D28" t="n">
-        <v>222.96</v>
+        <v>118.74</v>
       </c>
       <c r="E28" t="n">
-        <v>13.784</v>
+        <v>20.936</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>222.96</v>
+        <v>402.04</v>
       </c>
       <c r="D29" t="n">
-        <v>290.88</v>
+        <v>446.34</v>
       </c>
       <c r="E29" t="n">
-        <v>8.632</v>
+        <v>2.696</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>391.32</v>
+        <v>390.44</v>
       </c>
       <c r="D30" t="n">
-        <v>459.6</v>
+        <v>439.36</v>
       </c>
       <c r="E30" t="n">
-        <v>2.54</v>
+        <v>4.904</v>
       </c>
     </row>
     <row r="31">
@@ -1017,55 +1017,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>131.3</v>
+        <v>446.34</v>
       </c>
       <c r="D31" t="n">
-        <v>188.34</v>
+        <v>512.85</v>
       </c>
       <c r="E31" t="n">
-        <v>17.096</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>231.94</v>
+        <v>512.85</v>
       </c>
       <c r="D32" t="n">
-        <v>314.94</v>
+        <v>552.09</v>
       </c>
       <c r="E32" t="n">
-        <v>12.156</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>188.34</v>
+        <v>118.74</v>
       </c>
       <c r="D33" t="n">
-        <v>271.48</v>
+        <v>172.12</v>
       </c>
       <c r="E33" t="n">
-        <v>13.872</v>
+        <v>18.208</v>
       </c>
     </row>
     <row r="34">
@@ -1074,41 +1074,41 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>459.6</v>
+        <v>172.12</v>
       </c>
       <c r="D34" t="n">
-        <v>550.92</v>
+        <v>241.02</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>14.408</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>550.92</v>
+        <v>289.96</v>
       </c>
       <c r="D35" t="n">
-        <v>632.26</v>
+        <v>367.02</v>
       </c>
       <c r="E35" t="n">
-        <v>25.996</v>
+        <v>8.368</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1116,170 +1116,170 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>290.88</v>
+        <v>552.09</v>
       </c>
       <c r="D36" t="n">
-        <v>339.56</v>
+        <v>620.37</v>
       </c>
       <c r="E36" t="n">
-        <v>5.384</v>
+        <v>23.528</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>375.68</v>
+        <v>439.36</v>
       </c>
       <c r="D37" t="n">
-        <v>424.18</v>
+        <v>511.96</v>
       </c>
       <c r="E37" t="n">
-        <v>3.512</v>
+        <v>1.244</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>339.56</v>
+        <v>511.96</v>
       </c>
       <c r="D38" t="n">
-        <v>419.2</v>
+        <v>576.47</v>
       </c>
       <c r="E38" t="n">
-        <v>1.52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>419.2</v>
+        <v>126.66</v>
       </c>
       <c r="D39" t="n">
-        <v>502.96</v>
+        <v>173.88</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>19.552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>502.96</v>
+        <v>173.88</v>
       </c>
       <c r="D40" t="n">
-        <v>560.48</v>
+        <v>247.9</v>
       </c>
       <c r="E40" t="n">
-        <v>27.408</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>224</v>
+        <v>576.47</v>
       </c>
       <c r="D41" t="n">
-        <v>296.26</v>
+        <v>618.3099999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>10.064</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>560.48</v>
+        <v>247.9</v>
       </c>
       <c r="D42" t="n">
-        <v>609.02</v>
+        <v>298.14</v>
       </c>
       <c r="E42" t="n">
-        <v>24.184</v>
+        <v>12.376</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>296.26</v>
+        <v>241.02</v>
       </c>
       <c r="D43" t="n">
-        <v>335.66</v>
+        <v>288.62</v>
       </c>
       <c r="E43" t="n">
-        <v>7.744</v>
+        <v>11.288</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>314.94</v>
+        <v>483.72</v>
       </c>
       <c r="D44" t="n">
-        <v>398.74</v>
+        <v>558.08</v>
       </c>
       <c r="E44" t="n">
-        <v>7.356</v>
+        <v>2.032</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1287,146 +1287,165 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>335.66</v>
+        <v>288.62</v>
       </c>
       <c r="D45" t="n">
-        <v>403.98</v>
+        <v>346.94</v>
       </c>
       <c r="E45" t="n">
-        <v>3.532</v>
+        <v>7.076</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>609.02</v>
+        <v>367.02</v>
       </c>
       <c r="D46" t="n">
-        <v>676.72</v>
+        <v>442.36</v>
       </c>
       <c r="E46" t="n">
-        <v>20.524</v>
+        <v>3.944</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>424.18</v>
+        <v>298.14</v>
       </c>
       <c r="D47" t="n">
-        <v>480.82</v>
+        <v>377.2</v>
       </c>
       <c r="E47" t="n">
-        <v>0.488</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>480.82</v>
+        <v>346.94</v>
       </c>
       <c r="D48" t="n">
-        <v>586.14</v>
+        <v>413.64</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>2.516</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>271.48</v>
+        <v>413.64</v>
       </c>
       <c r="D49" t="n">
-        <v>313.98</v>
+        <v>485.61</v>
       </c>
       <c r="E49" t="n">
-        <v>10.752</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>313.98</v>
+        <v>485.61</v>
       </c>
       <c r="D50" t="n">
-        <v>392.9</v>
+        <v>530.6900000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>6.48</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>392.9</v>
+        <v>442.36</v>
       </c>
       <c r="D51" t="n">
-        <v>458.24</v>
+        <v>515.86</v>
       </c>
       <c r="E51" t="n">
-        <v>2.056</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>398.74</v>
+        <v>515.86</v>
       </c>
       <c r="D52" t="n">
-        <v>460.12</v>
+        <v>621.71</v>
       </c>
       <c r="E52" t="n">
-        <v>4.848</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>pond49</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>377.2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>463.34</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5.556</v>
       </c>
     </row>
   </sheetData>
